--- a/dataanalysis/data/predictions/1600/09101511_1512.xlsx
+++ b/dataanalysis/data/predictions/1600/09101511_1512.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="131">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-10</t>
   </si>
   <si>
@@ -404,12 +407,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -767,13 +764,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH58"/>
+  <dimension ref="A1:AI58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,19 +873,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300014</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-2.88</v>
@@ -906,7 +906,7 @@
         <v>764021.76</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K2">
         <v>4</v>
@@ -947,8 +947,23 @@
       <c r="W2">
         <v>-0.42</v>
       </c>
+      <c r="X2">
+        <v>2.21</v>
+      </c>
+      <c r="Y2">
+        <v>72.70999999999999</v>
+      </c>
+      <c r="Z2">
+        <v>3.65</v>
+      </c>
       <c r="AC2" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -956,22 +971,25 @@
       <c r="AG2">
         <v>6.759411334991455</v>
       </c>
-      <c r="AH2" t="s">
-        <v>130</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300043</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>9.25</v>
@@ -989,7 +1007,7 @@
         <v>117792.15</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1030,8 +1048,23 @@
       <c r="W3">
         <v>1.63</v>
       </c>
+      <c r="X3">
+        <v>-0.86</v>
+      </c>
+      <c r="Y3">
+        <v>5.79</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
       <c r="AC3" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1039,22 +1072,25 @@
       <c r="AG3">
         <v>-1.65946352481842</v>
       </c>
-      <c r="AH3" t="s">
-        <v>130</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300068</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>1.24</v>
@@ -1072,7 +1108,7 @@
         <v>363972.92</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1113,8 +1149,23 @@
       <c r="W4">
         <v>1.17</v>
       </c>
+      <c r="X4">
+        <v>2.79</v>
+      </c>
+      <c r="Y4">
+        <v>22.4</v>
+      </c>
+      <c r="Z4">
+        <v>9.539999999999999</v>
+      </c>
       <c r="AC4" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1122,22 +1173,25 @@
       <c r="AG4">
         <v>-7.813740253448486</v>
       </c>
-      <c r="AH4" t="s">
-        <v>130</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300092</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-6.74</v>
@@ -1155,7 +1209,7 @@
         <v>91558.62</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K5">
         <v>6</v>
@@ -1196,8 +1250,23 @@
       <c r="W5">
         <v>-0.35</v>
       </c>
+      <c r="X5">
+        <v>-0.47</v>
+      </c>
+      <c r="Y5">
+        <v>19.27</v>
+      </c>
+      <c r="Z5">
+        <v>1.69</v>
+      </c>
       <c r="AC5" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1205,22 +1274,25 @@
       <c r="AG5">
         <v>7.568479537963867</v>
       </c>
-      <c r="AH5" t="s">
-        <v>130</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300124</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0.8100000000000001</v>
@@ -1238,7 +1310,7 @@
         <v>488407.04</v>
       </c>
       <c r="J6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1279,8 +1351,23 @@
       <c r="W6">
         <v>-0.13</v>
       </c>
+      <c r="X6">
+        <v>1.48</v>
+      </c>
+      <c r="Y6">
+        <v>81.12</v>
+      </c>
+      <c r="Z6">
+        <v>2.01</v>
+      </c>
       <c r="AC6" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1288,22 +1375,25 @@
       <c r="AG6">
         <v>3.309674501419067</v>
       </c>
-      <c r="AH6" t="s">
-        <v>130</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300139</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>0.22</v>
@@ -1321,7 +1411,7 @@
         <v>320945.36</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1362,8 +1452,23 @@
       <c r="W7">
         <v>-0.85</v>
       </c>
+      <c r="X7">
+        <v>-2.15</v>
+      </c>
+      <c r="Y7">
+        <v>28.58</v>
+      </c>
+      <c r="Z7">
+        <v>4.27</v>
+      </c>
       <c r="AC7" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1371,22 +1476,25 @@
       <c r="AG7">
         <v>1.470378994941711</v>
       </c>
-      <c r="AH7" t="s">
-        <v>130</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300217</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>1.34</v>
@@ -1404,7 +1512,7 @@
         <v>74251.32000000001</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1445,8 +1553,23 @@
       <c r="W8">
         <v>-0.35</v>
       </c>
+      <c r="X8">
+        <v>1.65</v>
+      </c>
+      <c r="Y8">
+        <v>6.19</v>
+      </c>
+      <c r="Z8">
+        <v>2.31</v>
+      </c>
       <c r="AC8" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1454,22 +1577,25 @@
       <c r="AG8">
         <v>0.4149663150310516</v>
       </c>
-      <c r="AH8" t="s">
-        <v>130</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300237</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-1.47</v>
@@ -1487,7 +1613,7 @@
         <v>56212.22</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -1528,8 +1654,23 @@
       <c r="W9">
         <v>-0.16</v>
       </c>
+      <c r="X9">
+        <v>0.6</v>
+      </c>
+      <c r="Y9">
+        <v>3.48</v>
+      </c>
+      <c r="Z9">
+        <v>3.57</v>
+      </c>
       <c r="AC9" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1537,22 +1678,25 @@
       <c r="AG9">
         <v>1.494181513786316</v>
       </c>
-      <c r="AH9" t="s">
-        <v>130</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300274</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-1.22</v>
@@ -1570,7 +1714,7 @@
         <v>1525680.13</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K10">
         <v>6</v>
@@ -1611,8 +1755,23 @@
       <c r="W10">
         <v>-0.24</v>
       </c>
+      <c r="X10">
+        <v>7.05</v>
+      </c>
+      <c r="Y10">
+        <v>137.34</v>
+      </c>
+      <c r="Z10">
+        <v>7.05</v>
+      </c>
       <c r="AC10" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1620,22 +1779,25 @@
       <c r="AG10">
         <v>12.06711006164551</v>
       </c>
-      <c r="AH10" t="s">
-        <v>130</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300277</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-3.85</v>
@@ -1653,7 +1815,7 @@
         <v>53473.07</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1694,8 +1856,23 @@
       <c r="W11">
         <v>-0.89</v>
       </c>
+      <c r="X11">
+        <v>2.5</v>
+      </c>
+      <c r="Y11">
+        <v>15.96</v>
+      </c>
+      <c r="Z11">
+        <v>4.86</v>
+      </c>
       <c r="AC11" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1703,22 +1880,25 @@
       <c r="AG11">
         <v>-0.5922161340713501</v>
       </c>
-      <c r="AH11" t="s">
-        <v>130</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300308</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>7.16</v>
@@ -1736,7 +1916,7 @@
         <v>2374994.74</v>
       </c>
       <c r="J12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K12">
         <v>42</v>
@@ -1777,8 +1957,23 @@
       <c r="W12">
         <v>0.33</v>
       </c>
+      <c r="X12">
+        <v>14.28</v>
+      </c>
+      <c r="Y12">
+        <v>443.99</v>
+      </c>
+      <c r="Z12">
+        <v>15.32</v>
+      </c>
       <c r="AC12" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1786,22 +1981,25 @@
       <c r="AG12">
         <v>0.1400161534547806</v>
       </c>
-      <c r="AH12" t="s">
-        <v>130</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300409</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>6.87</v>
@@ -1819,7 +2017,7 @@
         <v>284192.69</v>
       </c>
       <c r="J13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K13">
         <v>18</v>
@@ -1860,8 +2058,23 @@
       <c r="W13">
         <v>1.81</v>
       </c>
+      <c r="X13">
+        <v>4.75</v>
+      </c>
+      <c r="Y13">
+        <v>26.99</v>
+      </c>
+      <c r="Z13">
+        <v>5.84</v>
+      </c>
       <c r="AC13" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1869,22 +2082,25 @@
       <c r="AG13">
         <v>5.405306339263916</v>
       </c>
-      <c r="AH13" t="s">
-        <v>130</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300450</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>4.55</v>
@@ -1902,7 +2118,7 @@
         <v>1411287.04</v>
       </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K14">
         <v>9</v>
@@ -1943,8 +2159,23 @@
       <c r="W14">
         <v>0.77</v>
       </c>
+      <c r="X14">
+        <v>2.59</v>
+      </c>
+      <c r="Y14">
+        <v>60.5</v>
+      </c>
+      <c r="Z14">
+        <v>3.22</v>
+      </c>
       <c r="AC14" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1952,22 +2183,25 @@
       <c r="AG14">
         <v>1.655927181243896</v>
       </c>
-      <c r="AH14" t="s">
-        <v>130</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300469</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>1.43</v>
@@ -1985,7 +2219,7 @@
         <v>110134.05</v>
       </c>
       <c r="J15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K15">
         <v>15</v>
@@ -2026,8 +2260,23 @@
       <c r="W15">
         <v>-0.21</v>
       </c>
+      <c r="X15">
+        <v>4.18</v>
+      </c>
+      <c r="Y15">
+        <v>73.58</v>
+      </c>
+      <c r="Z15">
+        <v>6.84</v>
+      </c>
       <c r="AC15" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2035,22 +2284,25 @@
       <c r="AG15">
         <v>-11.42273902893066</v>
       </c>
-      <c r="AH15" t="s">
-        <v>130</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300475</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0.49</v>
@@ -2068,7 +2320,7 @@
         <v>196583.68</v>
       </c>
       <c r="J16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K16">
         <v>4</v>
@@ -2109,8 +2361,23 @@
       <c r="W16">
         <v>0.08</v>
       </c>
+      <c r="X16">
+        <v>20</v>
+      </c>
+      <c r="Y16">
+        <v>64.51000000000001</v>
+      </c>
+      <c r="Z16">
+        <v>20</v>
+      </c>
       <c r="AC16" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -2118,22 +2385,25 @@
       <c r="AG16">
         <v>36.75605392456055</v>
       </c>
-      <c r="AH16" t="s">
-        <v>131</v>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300476</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>12.01</v>
@@ -2151,7 +2421,7 @@
         <v>2491700.22</v>
       </c>
       <c r="J17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17">
         <v>66</v>
@@ -2192,8 +2462,23 @@
       <c r="W17">
         <v>0.36</v>
       </c>
+      <c r="X17">
+        <v>16.28</v>
+      </c>
+      <c r="Y17">
+        <v>345.88</v>
+      </c>
+      <c r="Z17">
+        <v>18.99</v>
+      </c>
       <c r="AC17" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2201,22 +2486,25 @@
       <c r="AG17">
         <v>-5.990224838256836</v>
       </c>
-      <c r="AH17" t="s">
-        <v>130</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300528</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>13.83</v>
@@ -2234,7 +2522,7 @@
         <v>245585.05</v>
       </c>
       <c r="J18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -2275,8 +2563,23 @@
       <c r="W18">
         <v>1.85</v>
       </c>
+      <c r="X18">
+        <v>-11.6</v>
+      </c>
+      <c r="Y18">
+        <v>28</v>
+      </c>
+      <c r="Z18">
+        <v>-4.44</v>
+      </c>
       <c r="AC18" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2284,22 +2587,25 @@
       <c r="AG18">
         <v>0.6434177160263062</v>
       </c>
-      <c r="AH18" t="s">
-        <v>130</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300539</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2317,7 +2623,7 @@
         <v>116667.84</v>
       </c>
       <c r="J19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K19">
         <v>4</v>
@@ -2358,8 +2664,23 @@
       <c r="W19">
         <v>-0.78</v>
       </c>
+      <c r="X19">
+        <v>0.75</v>
+      </c>
+      <c r="Y19">
+        <v>39.95</v>
+      </c>
+      <c r="Z19">
+        <v>2.96</v>
+      </c>
       <c r="AC19" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2367,22 +2688,25 @@
       <c r="AG19">
         <v>4.114766120910645</v>
       </c>
-      <c r="AH19" t="s">
-        <v>130</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300568</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>6.01</v>
@@ -2400,7 +2724,7 @@
         <v>320983.76</v>
       </c>
       <c r="J20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -2441,8 +2765,23 @@
       <c r="W20">
         <v>0.41</v>
       </c>
+      <c r="X20">
+        <v>-0.75</v>
+      </c>
+      <c r="Y20">
+        <v>14.66</v>
+      </c>
+      <c r="Z20">
+        <v>0.07000000000000001</v>
+      </c>
       <c r="AC20" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2450,22 +2789,25 @@
       <c r="AG20">
         <v>-11.63815784454346</v>
       </c>
-      <c r="AH20" t="s">
-        <v>130</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300584</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-2.81</v>
@@ -2483,7 +2825,7 @@
         <v>99643.19</v>
       </c>
       <c r="J21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K21">
         <v>22</v>
@@ -2524,8 +2866,23 @@
       <c r="W21">
         <v>-0.91</v>
       </c>
+      <c r="X21">
+        <v>-3.18</v>
+      </c>
+      <c r="Y21">
+        <v>70.77</v>
+      </c>
+      <c r="Z21">
+        <v>-0.85</v>
+      </c>
       <c r="AC21" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2533,22 +2890,25 @@
       <c r="AG21">
         <v>-1.090602040290833</v>
       </c>
-      <c r="AH21" t="s">
-        <v>130</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300618</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>4.84</v>
@@ -2566,7 +2926,7 @@
         <v>194270.27</v>
       </c>
       <c r="J22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K22">
         <v>4</v>
@@ -2607,8 +2967,23 @@
       <c r="W22">
         <v>0.37</v>
       </c>
+      <c r="X22">
+        <v>2</v>
+      </c>
+      <c r="Y22">
+        <v>53.8</v>
+      </c>
+      <c r="Z22">
+        <v>3.46</v>
+      </c>
       <c r="AC22" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2616,22 +2991,25 @@
       <c r="AG22">
         <v>-3.27413535118103</v>
       </c>
-      <c r="AH22" t="s">
-        <v>130</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300619</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-4.78</v>
@@ -2649,7 +3027,7 @@
         <v>102406.57</v>
       </c>
       <c r="J23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -2690,8 +3068,23 @@
       <c r="W23">
         <v>-0.58</v>
       </c>
+      <c r="X23">
+        <v>2.86</v>
+      </c>
+      <c r="Y23">
+        <v>37.09</v>
+      </c>
+      <c r="Z23">
+        <v>2.88</v>
+      </c>
       <c r="AC23" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2699,22 +3092,25 @@
       <c r="AG23">
         <v>1.3664311170578</v>
       </c>
-      <c r="AH23" t="s">
-        <v>130</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300763</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-4.43</v>
@@ -2732,7 +3128,7 @@
         <v>338969.7</v>
       </c>
       <c r="J24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -2773,8 +3169,23 @@
       <c r="W24">
         <v>-1.27</v>
       </c>
+      <c r="X24">
+        <v>0.97</v>
+      </c>
+      <c r="Y24">
+        <v>85.47</v>
+      </c>
+      <c r="Z24">
+        <v>1.16</v>
+      </c>
       <c r="AC24" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2782,22 +3193,25 @@
       <c r="AG24">
         <v>1.63860559463501</v>
       </c>
-      <c r="AH24" t="s">
-        <v>130</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300790</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>11.76</v>
@@ -2815,7 +3229,7 @@
         <v>179772.54</v>
       </c>
       <c r="J25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K25">
         <v>7</v>
@@ -2856,8 +3270,23 @@
       <c r="W25">
         <v>0.09</v>
       </c>
+      <c r="X25">
+        <v>3.23</v>
+      </c>
+      <c r="Y25">
+        <v>35.8</v>
+      </c>
+      <c r="Z25">
+        <v>4.1</v>
+      </c>
       <c r="AC25" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2865,22 +3294,25 @@
       <c r="AG25">
         <v>5.311609745025635</v>
       </c>
-      <c r="AH25" t="s">
-        <v>130</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300792</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-1.56</v>
@@ -2898,7 +3330,7 @@
         <v>68579.24000000001</v>
       </c>
       <c r="J26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2939,8 +3371,23 @@
       <c r="W26">
         <v>-0.47</v>
       </c>
+      <c r="X26">
+        <v>-1.86</v>
+      </c>
+      <c r="Y26">
+        <v>32.38</v>
+      </c>
+      <c r="Z26">
+        <v>0.5</v>
+      </c>
       <c r="AC26" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2948,22 +3395,25 @@
       <c r="AG26">
         <v>3.93513011932373</v>
       </c>
-      <c r="AH26" t="s">
-        <v>130</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300801</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-5.26</v>
@@ -2981,7 +3431,7 @@
         <v>89398.22</v>
       </c>
       <c r="J27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -3022,8 +3472,23 @@
       <c r="W27">
         <v>-1.22</v>
       </c>
+      <c r="X27">
+        <v>-2.68</v>
+      </c>
+      <c r="Y27">
+        <v>29.87</v>
+      </c>
+      <c r="Z27">
+        <v>-1.29</v>
+      </c>
       <c r="AC27" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3031,22 +3496,25 @@
       <c r="AG27">
         <v>3.019125699996948</v>
       </c>
-      <c r="AH27" t="s">
-        <v>130</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300827</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-9.93</v>
@@ -3064,7 +3532,7 @@
         <v>319501.7</v>
       </c>
       <c r="J28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K28">
         <v>5</v>
@@ -3105,8 +3573,23 @@
       <c r="W28">
         <v>-2.41</v>
       </c>
+      <c r="X28">
+        <v>1.5</v>
+      </c>
+      <c r="Y28">
+        <v>33.81</v>
+      </c>
+      <c r="Z28">
+        <v>1.53</v>
+      </c>
       <c r="AC28" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3114,22 +3597,25 @@
       <c r="AG28">
         <v>1.424124717712402</v>
       </c>
-      <c r="AH28" t="s">
-        <v>130</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300857</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>11.29</v>
@@ -3147,7 +3633,7 @@
         <v>435723.78</v>
       </c>
       <c r="J29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K29">
         <v>14</v>
@@ -3188,8 +3674,23 @@
       <c r="W29">
         <v>-0.23</v>
       </c>
+      <c r="X29">
+        <v>7.07</v>
+      </c>
+      <c r="Y29">
+        <v>138.18</v>
+      </c>
+      <c r="Z29">
+        <v>7.95</v>
+      </c>
       <c r="AC29" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3197,22 +3698,25 @@
       <c r="AG29">
         <v>7.069123268127441</v>
       </c>
-      <c r="AH29" t="s">
-        <v>130</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300859</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>4.91</v>
@@ -3230,7 +3734,7 @@
         <v>88743.78999999999</v>
       </c>
       <c r="J30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3271,8 +3775,23 @@
       <c r="W30">
         <v>1.07</v>
       </c>
+      <c r="X30">
+        <v>-1.78</v>
+      </c>
+      <c r="Y30">
+        <v>47.57</v>
+      </c>
+      <c r="Z30">
+        <v>-1.41</v>
+      </c>
       <c r="AC30" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3280,22 +3799,25 @@
       <c r="AG30">
         <v>3.458921909332275</v>
       </c>
-      <c r="AH30" t="s">
-        <v>130</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300997</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>8.19</v>
@@ -3313,7 +3835,7 @@
         <v>66142.11</v>
       </c>
       <c r="J31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K31">
         <v>4</v>
@@ -3354,8 +3876,23 @@
       <c r="W31">
         <v>0.09</v>
       </c>
+      <c r="X31">
+        <v>-3.7</v>
+      </c>
+      <c r="Y31">
+        <v>21.56</v>
+      </c>
+      <c r="Z31">
+        <v>-1.64</v>
+      </c>
       <c r="AC31" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3363,22 +3900,25 @@
       <c r="AG31">
         <v>1.340057492256165</v>
       </c>
-      <c r="AH31" t="s">
-        <v>130</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301076</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-2.28</v>
@@ -3396,7 +3936,7 @@
         <v>173784.95</v>
       </c>
       <c r="J32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -3437,8 +3977,23 @@
       <c r="W32">
         <v>-0.36</v>
       </c>
+      <c r="X32">
+        <v>3.06</v>
+      </c>
+      <c r="Y32">
+        <v>62.48</v>
+      </c>
+      <c r="Z32">
+        <v>3.48</v>
+      </c>
       <c r="AC32" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3446,22 +4001,25 @@
       <c r="AG32">
         <v>2.704999923706055</v>
       </c>
-      <c r="AH32" t="s">
-        <v>130</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301150</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-0.27</v>
@@ -3479,7 +4037,7 @@
         <v>77684.00999999999</v>
       </c>
       <c r="J33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K33">
         <v>7</v>
@@ -3520,8 +4078,23 @@
       <c r="W33">
         <v>-0.49</v>
       </c>
+      <c r="X33">
+        <v>6.71</v>
+      </c>
+      <c r="Y33">
+        <v>41.08</v>
+      </c>
+      <c r="Z33">
+        <v>9.869999999999999</v>
+      </c>
       <c r="AC33" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3529,22 +4102,25 @@
       <c r="AG33">
         <v>3.134798288345337</v>
       </c>
-      <c r="AH33" t="s">
-        <v>130</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301238</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-5.54</v>
@@ -3562,7 +4138,7 @@
         <v>111674.41</v>
       </c>
       <c r="J34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -3603,8 +4179,23 @@
       <c r="W34">
         <v>-0.54</v>
       </c>
+      <c r="X34">
+        <v>-0.62</v>
+      </c>
+      <c r="Y34">
+        <v>23.1</v>
+      </c>
+      <c r="Z34">
+        <v>1.9</v>
+      </c>
       <c r="AC34" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3612,22 +4203,25 @@
       <c r="AG34">
         <v>160.6640167236328</v>
       </c>
-      <c r="AH34" t="s">
-        <v>130</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301413</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-3.56</v>
@@ -3645,7 +4239,7 @@
         <v>84900.47</v>
       </c>
       <c r="J35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K35">
         <v>14</v>
@@ -3686,8 +4280,23 @@
       <c r="W35">
         <v>0</v>
       </c>
+      <c r="X35">
+        <v>4.32</v>
+      </c>
+      <c r="Y35">
+        <v>144.93</v>
+      </c>
+      <c r="Z35">
+        <v>4.95</v>
+      </c>
       <c r="AC35" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3695,22 +4304,25 @@
       <c r="AG35">
         <v>-2.557370185852051</v>
       </c>
-      <c r="AH35" t="s">
-        <v>130</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301486</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>2.2</v>
@@ -3728,7 +4340,7 @@
         <v>133365.16</v>
       </c>
       <c r="J36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K36">
         <v>4</v>
@@ -3769,8 +4381,23 @@
       <c r="W36">
         <v>0.38</v>
       </c>
+      <c r="X36">
+        <v>2.51</v>
+      </c>
+      <c r="Y36">
+        <v>106.66</v>
+      </c>
+      <c r="Z36">
+        <v>4.57</v>
+      </c>
       <c r="AC36" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3778,22 +4405,25 @@
       <c r="AG36">
         <v>2.311468124389648</v>
       </c>
-      <c r="AH36" t="s">
-        <v>130</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301488</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-5.98</v>
@@ -3811,7 +4441,7 @@
         <v>99109.22</v>
       </c>
       <c r="J37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K37">
         <v>11</v>
@@ -3852,8 +4482,23 @@
       <c r="W37">
         <v>-1.18</v>
       </c>
+      <c r="X37">
+        <v>7.13</v>
+      </c>
+      <c r="Y37">
+        <v>149.77</v>
+      </c>
+      <c r="Z37">
+        <v>9.119999999999999</v>
+      </c>
       <c r="AC37" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3861,22 +4506,25 @@
       <c r="AG37">
         <v>-1.664530992507935</v>
       </c>
-      <c r="AH37" t="s">
-        <v>130</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301489</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>20</v>
@@ -3894,7 +4542,7 @@
         <v>167413.76</v>
       </c>
       <c r="J38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -3935,8 +4583,23 @@
       <c r="W38">
         <v>0.86</v>
       </c>
+      <c r="X38">
+        <v>-1.28</v>
+      </c>
+      <c r="Y38">
+        <v>237.81</v>
+      </c>
+      <c r="Z38">
+        <v>3.73</v>
+      </c>
       <c r="AC38" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -3944,22 +4607,25 @@
       <c r="AG38">
         <v>97.38975524902344</v>
       </c>
-      <c r="AH38" t="s">
-        <v>130</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301538</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>5.24</v>
@@ -3977,7 +4643,7 @@
         <v>55589.41</v>
       </c>
       <c r="J39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -4018,8 +4684,23 @@
       <c r="W39">
         <v>0.19</v>
       </c>
+      <c r="X39">
+        <v>7.34</v>
+      </c>
+      <c r="Y39">
+        <v>105</v>
+      </c>
+      <c r="Z39">
+        <v>14.65</v>
+      </c>
       <c r="AC39" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4027,22 +4708,25 @@
       <c r="AG39">
         <v>4.310349941253662</v>
       </c>
-      <c r="AH39" t="s">
-        <v>130</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301617</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>3.29</v>
@@ -4060,7 +4744,7 @@
         <v>71259.78999999999</v>
       </c>
       <c r="J40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K40">
         <v>14</v>
@@ -4101,8 +4785,23 @@
       <c r="W40">
         <v>0.17</v>
       </c>
+      <c r="X40">
+        <v>-3.99</v>
+      </c>
+      <c r="Y40">
+        <v>93.84999999999999</v>
+      </c>
+      <c r="Z40">
+        <v>7.27</v>
+      </c>
       <c r="AC40" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4110,22 +4809,25 @@
       <c r="AG40">
         <v>37.07882308959961</v>
       </c>
-      <c r="AH40" t="s">
-        <v>130</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688005</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-1.03</v>
@@ -4143,7 +4845,7 @@
         <v>143375.51</v>
       </c>
       <c r="J41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -4184,8 +4886,23 @@
       <c r="W41">
         <v>-0.72</v>
       </c>
+      <c r="X41">
+        <v>1.01</v>
+      </c>
+      <c r="Y41">
+        <v>29.14</v>
+      </c>
+      <c r="Z41">
+        <v>1.18</v>
+      </c>
       <c r="AC41" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4193,22 +4910,25 @@
       <c r="AG41">
         <v>1.487945675849915</v>
       </c>
-      <c r="AH41" t="s">
-        <v>130</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688006</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>5.88</v>
@@ -4226,7 +4946,7 @@
         <v>169487.05</v>
       </c>
       <c r="J42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K42">
         <v>8</v>
@@ -4267,8 +4987,23 @@
       <c r="W42">
         <v>0.39</v>
       </c>
+      <c r="X42">
+        <v>-3.36</v>
+      </c>
+      <c r="Y42">
+        <v>41.29</v>
+      </c>
+      <c r="Z42">
+        <v>-0.24</v>
+      </c>
       <c r="AC42" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4276,22 +5011,25 @@
       <c r="AG42">
         <v>1.084646105766296</v>
       </c>
-      <c r="AH42" t="s">
-        <v>130</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688028</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>8.289999999999999</v>
@@ -4309,7 +5047,7 @@
         <v>50470.39</v>
       </c>
       <c r="J43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -4350,8 +5088,23 @@
       <c r="W43">
         <v>0.68</v>
       </c>
+      <c r="X43">
+        <v>3.28</v>
+      </c>
+      <c r="Y43">
+        <v>37.7</v>
+      </c>
+      <c r="Z43">
+        <v>3.83</v>
+      </c>
       <c r="AC43" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4359,22 +5112,25 @@
       <c r="AG43">
         <v>0.8594018220901489</v>
       </c>
-      <c r="AH43" t="s">
-        <v>130</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688116</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-1.57</v>
@@ -4392,7 +5148,7 @@
         <v>97854.27</v>
       </c>
       <c r="J44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K44">
         <v>4</v>
@@ -4433,8 +5189,23 @@
       <c r="W44">
         <v>-0.13</v>
       </c>
+      <c r="X44">
+        <v>1.5</v>
+      </c>
+      <c r="Y44">
+        <v>56.39</v>
+      </c>
+      <c r="Z44">
+        <v>1.88</v>
+      </c>
       <c r="AC44" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4442,22 +5213,25 @@
       <c r="AG44">
         <v>-1.582284688949585</v>
       </c>
-      <c r="AH44" t="s">
-        <v>130</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688141</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>0.74</v>
@@ -4475,7 +5249,7 @@
         <v>53565.54</v>
       </c>
       <c r="J45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4516,8 +5290,23 @@
       <c r="W45">
         <v>0.28</v>
       </c>
+      <c r="X45">
+        <v>11.03</v>
+      </c>
+      <c r="Y45">
+        <v>52.66</v>
+      </c>
+      <c r="Z45">
+        <v>13.86</v>
+      </c>
       <c r="AC45" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4525,22 +5314,25 @@
       <c r="AG45">
         <v>17.59843444824219</v>
       </c>
-      <c r="AH45" t="s">
-        <v>130</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688147</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-2.11</v>
@@ -4558,7 +5350,7 @@
         <v>68356.13</v>
       </c>
       <c r="J46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K46">
         <v>18</v>
@@ -4599,8 +5391,23 @@
       <c r="W46">
         <v>-1.62</v>
       </c>
+      <c r="X46">
+        <v>0.27</v>
+      </c>
+      <c r="Y46">
+        <v>47.35</v>
+      </c>
+      <c r="Z46">
+        <v>5.2</v>
+      </c>
       <c r="AC46" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4608,22 +5415,25 @@
       <c r="AG46">
         <v>4.76762580871582</v>
       </c>
-      <c r="AH46" t="s">
-        <v>130</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688155</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-3.96</v>
@@ -4641,7 +5451,7 @@
         <v>65816.92999999999</v>
       </c>
       <c r="J47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K47">
         <v>9</v>
@@ -4682,8 +5492,23 @@
       <c r="W47">
         <v>-0.33</v>
       </c>
+      <c r="X47">
+        <v>3.26</v>
+      </c>
+      <c r="Y47">
+        <v>79.19</v>
+      </c>
+      <c r="Z47">
+        <v>4.44</v>
+      </c>
       <c r="AC47" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4691,22 +5516,25 @@
       <c r="AG47">
         <v>23.84739303588867</v>
       </c>
-      <c r="AH47" t="s">
-        <v>130</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688170</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>0.09</v>
@@ -4724,7 +5552,7 @@
         <v>37898.03</v>
       </c>
       <c r="J48" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K48">
         <v>3</v>
@@ -4765,8 +5593,23 @@
       <c r="W48">
         <v>-0.42</v>
       </c>
+      <c r="X48">
+        <v>1.97</v>
+      </c>
+      <c r="Y48">
+        <v>47.33</v>
+      </c>
+      <c r="Z48">
+        <v>3.7</v>
+      </c>
       <c r="AC48" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4774,22 +5617,25 @@
       <c r="AG48">
         <v>4.547287464141846</v>
       </c>
-      <c r="AH48" t="s">
-        <v>130</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688228</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>4.87</v>
@@ -4807,7 +5653,7 @@
         <v>67220.98</v>
       </c>
       <c r="J49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -4848,8 +5694,23 @@
       <c r="W49">
         <v>-0.48</v>
       </c>
+      <c r="X49">
+        <v>5.86</v>
+      </c>
+      <c r="Y49">
+        <v>142.79</v>
+      </c>
+      <c r="Z49">
+        <v>7.21</v>
+      </c>
       <c r="AC49" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD49">
+        <v>1</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>1</v>
@@ -4857,22 +5718,25 @@
       <c r="AG49">
         <v>7.664182186126709</v>
       </c>
-      <c r="AH49" t="s">
-        <v>130</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688234</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>2.79</v>
@@ -4890,7 +5754,7 @@
         <v>175704.06</v>
       </c>
       <c r="J50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -4931,8 +5795,23 @@
       <c r="W50">
         <v>0.23</v>
       </c>
+      <c r="X50">
+        <v>10.01</v>
+      </c>
+      <c r="Y50">
+        <v>95</v>
+      </c>
+      <c r="Z50">
+        <v>16.14</v>
+      </c>
       <c r="AC50" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -4940,22 +5819,25 @@
       <c r="AG50">
         <v>0.7869121432304382</v>
       </c>
-      <c r="AH50" t="s">
-        <v>130</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688331</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-0.9</v>
@@ -4973,7 +5855,7 @@
         <v>104185.08</v>
       </c>
       <c r="J51" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -5014,8 +5896,23 @@
       <c r="W51">
         <v>0.15</v>
       </c>
+      <c r="X51">
+        <v>6.81</v>
+      </c>
+      <c r="Y51">
+        <v>114</v>
+      </c>
+      <c r="Z51">
+        <v>10.52</v>
+      </c>
       <c r="AC51" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5023,22 +5920,25 @@
       <c r="AG51">
         <v>5.432372570037842</v>
       </c>
-      <c r="AH51" t="s">
-        <v>130</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688353</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-2.53</v>
@@ -5056,7 +5956,7 @@
         <v>44921.16</v>
       </c>
       <c r="J52" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -5097,8 +5997,23 @@
       <c r="W52">
         <v>-0.57</v>
       </c>
+      <c r="X52">
+        <v>4.17</v>
+      </c>
+      <c r="Y52">
+        <v>48.19</v>
+      </c>
+      <c r="Z52">
+        <v>7.02</v>
+      </c>
       <c r="AC52" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>1</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5106,22 +6021,25 @@
       <c r="AG52">
         <v>0.8510041832923889</v>
       </c>
-      <c r="AH52" t="s">
-        <v>130</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688388</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>20</v>
@@ -5139,7 +6057,7 @@
         <v>275136.64</v>
       </c>
       <c r="J53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K53">
         <v>7</v>
@@ -5180,8 +6098,23 @@
       <c r="W53">
         <v>1.36</v>
       </c>
+      <c r="X53">
+        <v>2.05</v>
+      </c>
+      <c r="Y53">
+        <v>37</v>
+      </c>
+      <c r="Z53">
+        <v>8.19</v>
+      </c>
       <c r="AC53" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="AD53">
+        <v>1</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
       <c r="AF53">
         <v>1</v>
@@ -5189,22 +6122,25 @@
       <c r="AG53">
         <v>17.45608901977539</v>
       </c>
-      <c r="AH53" t="s">
-        <v>131</v>
+      <c r="AH53">
+        <v>1</v>
+      </c>
+      <c r="AI53">
+        <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688411</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-7.09</v>
@@ -5222,7 +6158,7 @@
         <v>87363.17999999999</v>
       </c>
       <c r="J54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K54">
         <v>7</v>
@@ -5263,8 +6199,23 @@
       <c r="W54">
         <v>-1.18</v>
       </c>
+      <c r="X54">
+        <v>6.72</v>
+      </c>
+      <c r="Y54">
+        <v>178.9</v>
+      </c>
+      <c r="Z54">
+        <v>7.51</v>
+      </c>
       <c r="AC54" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5272,22 +6223,25 @@
       <c r="AG54">
         <v>1.039443135261536</v>
       </c>
-      <c r="AH54" t="s">
-        <v>130</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688499</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>1.47</v>
@@ -5305,7 +6259,7 @@
         <v>158507.78</v>
       </c>
       <c r="J55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K55">
         <v>4</v>
@@ -5346,8 +6300,23 @@
       <c r="W55">
         <v>-0.54</v>
       </c>
+      <c r="X55">
+        <v>-1.54</v>
+      </c>
+      <c r="Y55">
+        <v>77.5</v>
+      </c>
+      <c r="Z55">
+        <v>0.39</v>
+      </c>
       <c r="AC55" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5355,22 +6324,25 @@
       <c r="AG55">
         <v>8.41314697265625</v>
       </c>
-      <c r="AH55" t="s">
-        <v>130</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688559</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>0.29</v>
@@ -5388,7 +6360,7 @@
         <v>78283.17</v>
       </c>
       <c r="J56" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K56">
         <v>4</v>
@@ -5429,8 +6401,23 @@
       <c r="W56">
         <v>-0.35</v>
       </c>
+      <c r="X56">
+        <v>1.69</v>
+      </c>
+      <c r="Y56">
+        <v>42.36</v>
+      </c>
+      <c r="Z56">
+        <v>3.52</v>
+      </c>
       <c r="AC56" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5438,22 +6425,25 @@
       <c r="AG56">
         <v>2.475343942642212</v>
       </c>
-      <c r="AH56" t="s">
-        <v>130</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688598</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>0.78</v>
@@ -5471,7 +6461,7 @@
         <v>43028.41</v>
       </c>
       <c r="J57" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -5512,8 +6502,23 @@
       <c r="W57">
         <v>0.86</v>
       </c>
+      <c r="X57">
+        <v>2.15</v>
+      </c>
+      <c r="Y57">
+        <v>37.17</v>
+      </c>
+      <c r="Z57">
+        <v>2.54</v>
+      </c>
       <c r="AC57" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5521,22 +6526,25 @@
       <c r="AG57">
         <v>1.904425740242004</v>
       </c>
-      <c r="AH57" t="s">
-        <v>130</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688613</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-4.4</v>
@@ -5554,7 +6562,7 @@
         <v>34088.97</v>
       </c>
       <c r="J58" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -5595,8 +6603,23 @@
       <c r="W58">
         <v>-1.17</v>
       </c>
+      <c r="X58">
+        <v>5.98</v>
+      </c>
+      <c r="Y58">
+        <v>27.55</v>
+      </c>
+      <c r="Z58">
+        <v>8.380000000000001</v>
+      </c>
       <c r="AC58" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5604,8 +6627,11 @@
       <c r="AG58">
         <v>-6.456746101379395</v>
       </c>
-      <c r="AH58" t="s">
-        <v>130</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
